--- a/order.xlsx
+++ b/order.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="91">
   <si>
     <t>ID</t>
   </si>
@@ -50,171 +50,171 @@
     <t>ddddhhjh</t>
   </si>
   <si>
+    <t>2222</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>hello</t>
+  </si>
+  <si>
+    <t>malekkLLL</t>
+  </si>
+  <si>
+    <t>ddddh</t>
+  </si>
+  <si>
+    <t>21801631</t>
+  </si>
+  <si>
+    <t>1234</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>ddd</t>
+  </si>
+  <si>
+    <t>de</t>
+  </si>
+  <si>
+    <t>35344446</t>
+  </si>
+  <si>
+    <t>1223</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>hey</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>tunisie</t>
+  </si>
+  <si>
+    <t>djejjjj</t>
+  </si>
+  <si>
+    <t>123456789</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>DDD</t>
+  </si>
+  <si>
+    <t>SSS</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>8011</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>MALEK</t>
+  </si>
+  <si>
+    <t>DD</t>
+  </si>
+  <si>
+    <t>JNCJD</t>
+  </si>
+  <si>
+    <t>12345</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>inkjk</t>
+  </si>
+  <si>
+    <t>N.NN</t>
+  </si>
+  <si>
+    <t>GJHGHJ</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>ZZZ</t>
+  </si>
+  <si>
+    <t>b,jb,n</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>ghada</t>
+  </si>
+  <si>
+    <t>eee</t>
+  </si>
+  <si>
+    <t>2134</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>12AA</t>
+  </si>
+  <si>
+    <t>Counnttr</t>
+  </si>
+  <si>
+    <t>regii</t>
+  </si>
+  <si>
+    <t>2145432346</t>
+  </si>
+  <si>
+    <t>9999</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>ffgg33</t>
+  </si>
+  <si>
+    <t>jjjj</t>
+  </si>
+  <si>
+    <t>hhhh</t>
+  </si>
+  <si>
     <t>12345678</t>
   </si>
   <si>
-    <t>2222</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>hello</t>
-  </si>
-  <si>
-    <t>malekkLLL</t>
-  </si>
-  <si>
-    <t>dddd</t>
-  </si>
-  <si>
-    <t>21801632</t>
-  </si>
-  <si>
-    <t>1234</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>y</t>
-  </si>
-  <si>
-    <t>ddd</t>
-  </si>
-  <si>
-    <t>de</t>
-  </si>
-  <si>
-    <t>35344446</t>
-  </si>
-  <si>
-    <t>1223</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>hey</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>tunisie</t>
-  </si>
-  <si>
-    <t>djejjjj</t>
-  </si>
-  <si>
-    <t>123456789</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>DDD</t>
-  </si>
-  <si>
-    <t>SSS</t>
-  </si>
-  <si>
-    <t>123</t>
-  </si>
-  <si>
-    <t>8011</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>MALEK</t>
-  </si>
-  <si>
-    <t>DD</t>
-  </si>
-  <si>
-    <t>JNCJD</t>
-  </si>
-  <si>
-    <t>12345</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>inkjk</t>
-  </si>
-  <si>
-    <t>N.NN</t>
-  </si>
-  <si>
-    <t>GJHGHJ</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>ZZZ</t>
-  </si>
-  <si>
-    <t>b,jb,n</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>ghada</t>
-  </si>
-  <si>
-    <t>eee</t>
-  </si>
-  <si>
-    <t>2134</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>12AA</t>
-  </si>
-  <si>
-    <t>Counnttr</t>
-  </si>
-  <si>
-    <t>regii</t>
-  </si>
-  <si>
-    <t>2145432346</t>
-  </si>
-  <si>
-    <t>9999</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>ffgg33</t>
-  </si>
-  <si>
-    <t>jjjj</t>
-  </si>
-  <si>
-    <t>hhhh</t>
-  </si>
-  <si>
     <t>1235</t>
   </si>
   <si>
@@ -279,6 +279,12 @@
   </si>
   <si>
     <t>GGGG</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>jjhhjh</t>
   </si>
 </sst>
 </file>
@@ -323,7 +329,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" zoomScale="150"/>
   </sheetViews>
@@ -374,329 +380,329 @@
         <v>11</v>
       </c>
       <c r="F2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" t="s">
         <v>12</v>
-      </c>
-      <c r="G2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
         <v>14</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
         <v>15</v>
       </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>16</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>17</v>
       </c>
-      <c r="F3" t="s">
-        <v>18</v>
-      </c>
       <c r="G3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
         <v>15</v>
       </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>16</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>17</v>
       </c>
-      <c r="F4" t="s">
-        <v>18</v>
-      </c>
       <c r="G4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" t="s">
         <v>15</v>
       </c>
-      <c r="C5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>16</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>17</v>
       </c>
-      <c r="F5" t="s">
-        <v>18</v>
-      </c>
       <c r="G5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" t="s">
         <v>15</v>
       </c>
-      <c r="C6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>16</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>17</v>
       </c>
-      <c r="F6" t="s">
-        <v>18</v>
-      </c>
       <c r="G6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" t="s">
         <v>15</v>
       </c>
-      <c r="C7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>16</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>17</v>
       </c>
-      <c r="F7" t="s">
-        <v>18</v>
-      </c>
       <c r="G7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
         <v>24</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" t="s">
         <v>25</v>
       </c>
-      <c r="C8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>26</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>27</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>28</v>
-      </c>
-      <c r="G8" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" t="s">
         <v>30</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>31</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>32</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>33</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>34</v>
       </c>
-      <c r="F9" t="s">
-        <v>35</v>
-      </c>
       <c r="G9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" t="s">
         <v>36</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" t="s">
         <v>37</v>
       </c>
-      <c r="C10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
+        <v>37</v>
+      </c>
+      <c r="F10" t="s">
         <v>38</v>
       </c>
-      <c r="E10" t="s">
-        <v>38</v>
-      </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>39</v>
-      </c>
-      <c r="G10" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" t="s">
         <v>41</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" t="s">
         <v>42</v>
       </c>
-      <c r="C11" t="s">
-        <v>32</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>43</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>44</v>
       </c>
-      <c r="F11" t="s">
-        <v>45</v>
-      </c>
       <c r="G11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" t="s">
         <v>46</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" t="s">
         <v>47</v>
       </c>
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>48</v>
       </c>
-      <c r="E12" t="s">
-        <v>49</v>
-      </c>
       <c r="F12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" t="s">
         <v>50</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" t="s">
         <v>51</v>
       </c>
-      <c r="C13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" t="s">
-        <v>52</v>
-      </c>
       <c r="E13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
+        <v>52</v>
+      </c>
+      <c r="B14" t="s">
         <v>53</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" t="s">
         <v>54</v>
       </c>
-      <c r="C14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" t="s">
-        <v>26</v>
-      </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
+        <v>38</v>
+      </c>
+      <c r="G14" t="s">
         <v>55</v>
-      </c>
-      <c r="F14" t="s">
-        <v>39</v>
-      </c>
-      <c r="G14" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
+        <v>56</v>
+      </c>
+      <c r="B15" t="s">
         <v>57</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" t="s">
         <v>58</v>
       </c>
-      <c r="C15" t="s">
-        <v>32</v>
-      </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>59</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
         <v>60</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
         <v>61</v>
-      </c>
-      <c r="G15" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
+        <v>62</v>
+      </c>
+      <c r="B16" t="s">
         <v>63</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" t="s">
         <v>64</v>
       </c>
-      <c r="C16" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
         <v>65</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
         <v>66</v>
-      </c>
-      <c r="F16" t="s">
-        <v>12</v>
       </c>
       <c r="G16" t="s">
         <v>67</v>
@@ -710,19 +716,19 @@
         <v>69</v>
       </c>
       <c r="C17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E17" t="s">
         <v>70</v>
       </c>
       <c r="F17" t="s">
-        <v>12</v>
+        <v>66</v>
       </c>
       <c r="G17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18">
@@ -742,10 +748,10 @@
         <v>74</v>
       </c>
       <c r="F18" t="s">
-        <v>12</v>
+        <v>66</v>
       </c>
       <c r="G18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19">
@@ -765,10 +771,10 @@
         <v>78</v>
       </c>
       <c r="F19" t="s">
-        <v>12</v>
+        <v>66</v>
       </c>
       <c r="G19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20">
@@ -811,10 +817,33 @@
         <v>88</v>
       </c>
       <c r="F21" t="s">
-        <v>12</v>
+        <v>66</v>
       </c>
       <c r="G21" t="s">
-        <v>19</v>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>89</v>
+      </c>
+      <c r="B22" t="s">
+        <v>65</v>
+      </c>
+      <c r="C22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" t="s">
+        <v>90</v>
+      </c>
+      <c r="E22" t="s">
+        <v>65</v>
+      </c>
+      <c r="F22" t="s">
+        <v>66</v>
+      </c>
+      <c r="G22" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
